--- a/Code/Results/Cases/Case_3_218/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_218/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001981331545824</v>
+        <v>1.02985163381283</v>
       </c>
       <c r="D2">
-        <v>1.017471452094434</v>
+        <v>1.0334098029751</v>
       </c>
       <c r="E2">
-        <v>1.008106968303988</v>
+        <v>1.029627399942429</v>
       </c>
       <c r="F2">
-        <v>0.9650884496747166</v>
+        <v>1.039458241156218</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039446410230993</v>
+        <v>1.035472387700199</v>
       </c>
       <c r="J2">
-        <v>1.024102942395595</v>
+        <v>1.034996120801076</v>
       </c>
       <c r="K2">
-        <v>1.028692631853073</v>
+        <v>1.036212233826857</v>
       </c>
       <c r="L2">
-        <v>1.019454503869054</v>
+        <v>1.032440761773479</v>
       </c>
       <c r="M2">
-        <v>0.9770565801832848</v>
+        <v>1.04224337180847</v>
       </c>
       <c r="N2">
-        <v>1.011771347586587</v>
+        <v>1.015636665658253</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006513098880707</v>
+        <v>1.030775563345503</v>
       </c>
       <c r="D3">
-        <v>1.020798512597035</v>
+        <v>1.034100561552578</v>
       </c>
       <c r="E3">
-        <v>1.011730316917434</v>
+        <v>1.030411892956195</v>
       </c>
       <c r="F3">
-        <v>0.9767614106068262</v>
+        <v>1.04165550541496</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041134755192262</v>
+        <v>1.035746541569345</v>
       </c>
       <c r="J3">
-        <v>1.026827771362686</v>
+        <v>1.035561387523069</v>
       </c>
       <c r="K3">
-        <v>1.031172013010703</v>
+        <v>1.036712282452409</v>
       </c>
       <c r="L3">
-        <v>1.022215274411169</v>
+        <v>1.033033503614254</v>
       </c>
       <c r="M3">
-        <v>0.9877005297728021</v>
+        <v>1.044247206865055</v>
       </c>
       <c r="N3">
-        <v>1.01269870288984</v>
+        <v>1.015827145815178</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009376880370067</v>
+        <v>1.031373475103234</v>
       </c>
       <c r="D4">
-        <v>1.022901336159954</v>
+        <v>1.03454749355653</v>
       </c>
       <c r="E4">
-        <v>1.014025437097942</v>
+        <v>1.030919934860554</v>
       </c>
       <c r="F4">
-        <v>0.983988452796285</v>
+        <v>1.043072034178141</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042184897215845</v>
+        <v>1.035922491905623</v>
       </c>
       <c r="J4">
-        <v>1.028543728426625</v>
+        <v>1.035926607291227</v>
       </c>
       <c r="K4">
-        <v>1.032731001310969</v>
+        <v>1.037035137052532</v>
       </c>
       <c r="L4">
-        <v>1.023957483994643</v>
+        <v>1.033416814773073</v>
       </c>
       <c r="M4">
-        <v>0.9942840432198835</v>
+        <v>1.045538245007781</v>
       </c>
       <c r="N4">
-        <v>1.013282491115922</v>
+        <v>1.015950139453989</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010565165647804</v>
+        <v>1.031624853792447</v>
       </c>
       <c r="D5">
-        <v>1.023773967991866</v>
+        <v>1.034735375537411</v>
       </c>
       <c r="E5">
-        <v>1.014979030043357</v>
+        <v>1.031133616663815</v>
       </c>
       <c r="F5">
-        <v>0.9869552321687831</v>
+        <v>1.043666317701273</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042616757058929</v>
+        <v>1.035996116615918</v>
       </c>
       <c r="J5">
-        <v>1.029254344986541</v>
+        <v>1.036080015454715</v>
       </c>
       <c r="K5">
-        <v>1.033376060033537</v>
+        <v>1.037170695587925</v>
       </c>
       <c r="L5">
-        <v>1.02467981773203</v>
+        <v>1.033577903282417</v>
       </c>
       <c r="M5">
-        <v>0.9969850630908003</v>
+        <v>1.046079691350235</v>
       </c>
       <c r="N5">
-        <v>1.013524193022835</v>
+        <v>1.016001783844458</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010763787429771</v>
+        <v>1.031667062364672</v>
       </c>
       <c r="D6">
-        <v>1.023919834199921</v>
+        <v>1.034766921269561</v>
       </c>
       <c r="E6">
-        <v>1.015138496551543</v>
+        <v>1.031169500695908</v>
       </c>
       <c r="F6">
-        <v>0.9874493520912959</v>
+        <v>1.043766029575443</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042688717951202</v>
+        <v>1.036008458344899</v>
       </c>
       <c r="J6">
-        <v>1.029373043279662</v>
+        <v>1.036105765734785</v>
       </c>
       <c r="K6">
-        <v>1.03348377584226</v>
+        <v>1.037193446535042</v>
       </c>
       <c r="L6">
-        <v>1.024800522327801</v>
+        <v>1.033604947501212</v>
       </c>
       <c r="M6">
-        <v>0.9974348262627469</v>
+        <v>1.046170526821487</v>
       </c>
       <c r="N6">
-        <v>1.013564562249094</v>
+        <v>1.016010451522588</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00939281881681</v>
+        <v>1.031376833971935</v>
       </c>
       <c r="D7">
-        <v>1.022913040363688</v>
+        <v>1.034550004076983</v>
       </c>
       <c r="E7">
-        <v>1.014038222658585</v>
+        <v>1.030922789690695</v>
       </c>
       <c r="F7">
-        <v>0.9840283678033278</v>
+        <v>1.043079979799719</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042190704911978</v>
+        <v>1.03592347703596</v>
       </c>
       <c r="J7">
-        <v>1.02855326538886</v>
+        <v>1.035928657649874</v>
       </c>
       <c r="K7">
-        <v>1.03273966060562</v>
+        <v>1.0370369490579</v>
       </c>
       <c r="L7">
-        <v>1.023967174892806</v>
+        <v>1.033418967463561</v>
       </c>
       <c r="M7">
-        <v>0.9943203890363771</v>
+        <v>1.045545484937002</v>
       </c>
       <c r="N7">
-        <v>1.013285735159845</v>
+        <v>1.015950829772962</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003527547752916</v>
+        <v>1.030163866386867</v>
       </c>
       <c r="D8">
-        <v>1.018606568385841</v>
+        <v>1.033643255407682</v>
       </c>
       <c r="E8">
-        <v>1.009342083470611</v>
+        <v>1.029892435469538</v>
       </c>
       <c r="F8">
-        <v>0.9691051943253962</v>
+        <v>1.040201922487479</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04002608862039</v>
+        <v>1.035565339357897</v>
       </c>
       <c r="J8">
-        <v>1.025033915867517</v>
+        <v>1.035187268547696</v>
       </c>
       <c r="K8">
-        <v>1.029540264915096</v>
+        <v>1.036381374985654</v>
       </c>
       <c r="L8">
-        <v>1.020396979970135</v>
+        <v>1.032641129877842</v>
       </c>
       <c r="M8">
-        <v>0.9807205816674067</v>
+        <v>1.042921749646494</v>
       </c>
       <c r="N8">
-        <v>1.012088230979628</v>
+        <v>1.015701093137519</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9926282254852439</v>
+        <v>1.028026960110312</v>
       </c>
       <c r="D9">
-        <v>1.010605457333785</v>
+        <v>1.032045172340095</v>
       </c>
       <c r="E9">
-        <v>1.000660011966423</v>
+        <v>1.028080060486594</v>
       </c>
       <c r="F9">
-        <v>0.9399539792041384</v>
+        <v>1.035088808615581</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035860562933061</v>
+        <v>1.034923126276459</v>
       </c>
       <c r="J9">
-        <v>1.018444012934462</v>
+        <v>1.033876648684567</v>
       </c>
       <c r="K9">
-        <v>1.023528780281787</v>
+        <v>1.035220705477359</v>
       </c>
       <c r="L9">
-        <v>1.013742390005367</v>
+        <v>1.031268692439332</v>
       </c>
       <c r="M9">
-        <v>0.9541026719326756</v>
+        <v>1.038254361684598</v>
       </c>
       <c r="N9">
-        <v>1.009844570702536</v>
+        <v>1.015259032983073</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9849201795164799</v>
+        <v>1.026602658346745</v>
       </c>
       <c r="D10">
-        <v>1.004945178291212</v>
+        <v>1.030979582447574</v>
       </c>
       <c r="E10">
-        <v>0.9945522428757358</v>
+        <v>1.026873992441976</v>
       </c>
       <c r="F10">
-        <v>0.9179734785983898</v>
+        <v>1.031650096418278</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032801506415362</v>
+        <v>1.034487418971757</v>
       </c>
       <c r="J10">
-        <v>1.013745140795397</v>
+        <v>1.033000050048301</v>
       </c>
       <c r="K10">
-        <v>1.019225716385006</v>
+        <v>1.034443214804846</v>
       </c>
       <c r="L10">
-        <v>1.009020559866689</v>
+        <v>1.030352517210957</v>
       </c>
       <c r="M10">
-        <v>0.9340004832819087</v>
+        <v>1.035111309019249</v>
       </c>
       <c r="N10">
-        <v>1.008244376720913</v>
+        <v>1.01496298142846</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9814604117586663</v>
+        <v>1.025985983216603</v>
       </c>
       <c r="D11">
-        <v>1.002402939031466</v>
+        <v>1.030518117782608</v>
       </c>
       <c r="E11">
-        <v>0.9918187607521856</v>
+        <v>1.026352268554195</v>
       </c>
       <c r="F11">
-        <v>0.9076583064002669</v>
+        <v>1.030153539387335</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03139641638326</v>
+        <v>1.034296939317539</v>
       </c>
       <c r="J11">
-        <v>1.011625328593077</v>
+        <v>1.032619788982021</v>
       </c>
       <c r="K11">
-        <v>1.017279681272615</v>
+        <v>1.034105663268573</v>
       </c>
       <c r="L11">
-        <v>1.006896630267944</v>
+        <v>1.029955510248439</v>
       </c>
       <c r="M11">
-        <v>0.9245604395645249</v>
+        <v>1.033742452928808</v>
       </c>
       <c r="N11">
-        <v>1.007522535082074</v>
+        <v>1.014834467295868</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9801551322121066</v>
+        <v>1.025756930309732</v>
       </c>
       <c r="D12">
-        <v>1.001443419343059</v>
+        <v>1.030346700134242</v>
       </c>
       <c r="E12">
-        <v>0.9907887114836698</v>
+        <v>1.026158553750238</v>
       </c>
       <c r="F12">
-        <v>0.9036847223151467</v>
+        <v>1.029596474968001</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030860895132519</v>
+        <v>1.034225912197662</v>
       </c>
       <c r="J12">
-        <v>1.010823773357033</v>
+        <v>1.032478438946442</v>
       </c>
       <c r="K12">
-        <v>1.016543017865575</v>
+        <v>1.033980146541646</v>
       </c>
       <c r="L12">
-        <v>1.006094538875903</v>
+        <v>1.029807999081162</v>
       </c>
       <c r="M12">
-        <v>0.9209231624585043</v>
+        <v>1.033232776662302</v>
       </c>
       <c r="N12">
-        <v>1.007249611598439</v>
+        <v>1.014786682893652</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9804360650022761</v>
+        <v>1.025806062601753</v>
       </c>
       <c r="D13">
-        <v>1.001649956149907</v>
+        <v>1.030383470223525</v>
       </c>
       <c r="E13">
-        <v>0.9910103516276237</v>
+        <v>1.026200102766558</v>
       </c>
       <c r="F13">
-        <v>0.9045439259029313</v>
+        <v>1.029716021047707</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030976410650838</v>
+        <v>1.034241160205713</v>
       </c>
       <c r="J13">
-        <v>1.01099637593508</v>
+        <v>1.032508763734326</v>
       </c>
       <c r="K13">
-        <v>1.016701685809428</v>
+        <v>1.034007076432083</v>
       </c>
       <c r="L13">
-        <v>1.006267209259657</v>
+        <v>1.029839642776321</v>
       </c>
       <c r="M13">
-        <v>0.9217096803691106</v>
+        <v>1.033342159845636</v>
       </c>
       <c r="N13">
-        <v>1.007308380152756</v>
+        <v>1.014796935009217</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9813529401964567</v>
+        <v>1.025967049479997</v>
       </c>
       <c r="D14">
-        <v>1.002323945207017</v>
+        <v>1.030503948535666</v>
       </c>
       <c r="E14">
-        <v>0.9917339256880909</v>
+        <v>1.026336254464988</v>
       </c>
       <c r="F14">
-        <v>0.907332898363458</v>
+        <v>1.030107516496406</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031352437781339</v>
+        <v>1.034291073803441</v>
       </c>
       <c r="J14">
-        <v>1.011559369717232</v>
+        <v>1.032608107073062</v>
       </c>
       <c r="K14">
-        <v>1.017219079517607</v>
+        <v>1.034095290777227</v>
       </c>
       <c r="L14">
-        <v>1.006830606011637</v>
+        <v>1.029943317852321</v>
       </c>
       <c r="M14">
-        <v>0.9242625879683957</v>
+        <v>1.033700348073374</v>
       </c>
       <c r="N14">
-        <v>1.007500076018313</v>
+        <v>1.014830518413355</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9819151242119999</v>
+        <v>1.026066239802198</v>
       </c>
       <c r="D15">
-        <v>1.002737144750932</v>
+        <v>1.030578177974424</v>
       </c>
       <c r="E15">
-        <v>0.9921777479330708</v>
+        <v>1.026420152174764</v>
       </c>
       <c r="F15">
-        <v>0.9090316776845379</v>
+        <v>1.030348572689988</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031582265430827</v>
+        <v>1.034321790792544</v>
       </c>
       <c r="J15">
-        <v>1.011904325949595</v>
+        <v>1.03266930195911</v>
       </c>
       <c r="K15">
-        <v>1.017535984804226</v>
+        <v>1.034149624622814</v>
       </c>
       <c r="L15">
-        <v>1.007175946224532</v>
+        <v>1.030007189496785</v>
       </c>
       <c r="M15">
-        <v>0.9258174783942219</v>
+        <v>1.033920876618235</v>
       </c>
       <c r="N15">
-        <v>1.007617535004888</v>
+        <v>1.014851203820721</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9851470724526684</v>
+        <v>1.026643586170997</v>
       </c>
       <c r="D16">
-        <v>1.005111853933444</v>
+        <v>1.031010207087834</v>
       </c>
       <c r="E16">
-        <v>0.9947316736887526</v>
+        <v>1.026908628301382</v>
       </c>
       <c r="F16">
-        <v>0.9186394972965922</v>
+        <v>1.031749255141533</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03289294070961</v>
+        <v>1.034500022081056</v>
       </c>
       <c r="J16">
-        <v>1.013883921367177</v>
+        <v>1.033025272161045</v>
       </c>
       <c r="K16">
-        <v>1.019353013264739</v>
+        <v>1.034465598099044</v>
       </c>
       <c r="L16">
-        <v>1.00915974579418</v>
+        <v>1.030378858957092</v>
       </c>
       <c r="M16">
-        <v>0.934609879668831</v>
+        <v>1.035201986101602</v>
       </c>
       <c r="N16">
-        <v>1.008291636857884</v>
+        <v>1.014971503692269</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9871405122227224</v>
+        <v>1.027005754939567</v>
       </c>
       <c r="D17">
-        <v>1.006576040564539</v>
+        <v>1.03128119185671</v>
       </c>
       <c r="E17">
-        <v>0.996309030046312</v>
+        <v>1.027215173308288</v>
       </c>
       <c r="F17">
-        <v>0.9244388193330564</v>
+        <v>1.032625811751418</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033692583020994</v>
+        <v>1.034611334581524</v>
       </c>
       <c r="J17">
-        <v>1.015101991335446</v>
+        <v>1.033248378113699</v>
       </c>
       <c r="K17">
-        <v>1.020469742110224</v>
+        <v>1.034663560219297</v>
       </c>
       <c r="L17">
-        <v>1.01038208632243</v>
+        <v>1.03061191753479</v>
       </c>
       <c r="M17">
-        <v>0.9399154780695282</v>
+        <v>1.036003453508546</v>
       </c>
       <c r="N17">
-        <v>1.008706444641014</v>
+        <v>1.015046878332369</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9882916069547664</v>
+        <v>1.027217007408971</v>
       </c>
       <c r="D18">
-        <v>1.007421383011085</v>
+        <v>1.031439247206571</v>
       </c>
       <c r="E18">
-        <v>0.9972206153042205</v>
+        <v>1.027394025194716</v>
       </c>
       <c r="F18">
-        <v>0.9277462965760759</v>
+        <v>1.033136364467597</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034151352975185</v>
+        <v>1.034676086228346</v>
       </c>
       <c r="J18">
-        <v>1.015804359196569</v>
+        <v>1.033378445706701</v>
       </c>
       <c r="K18">
-        <v>1.021113231633501</v>
+        <v>1.034778942082043</v>
       </c>
       <c r="L18">
-        <v>1.01108749763433</v>
+        <v>1.03074782803445</v>
       </c>
       <c r="M18">
-        <v>0.9429407812442846</v>
+        <v>1.036470176753287</v>
       </c>
       <c r="N18">
-        <v>1.00894563691761</v>
+        <v>1.015090812043071</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9886821749799694</v>
+        <v>1.027289040008914</v>
       </c>
       <c r="D19">
-        <v>1.007708188934115</v>
+        <v>1.031493139081752</v>
       </c>
       <c r="E19">
-        <v>0.9975300446480779</v>
+        <v>1.027455017444469</v>
       </c>
       <c r="F19">
-        <v>0.9288618920095315</v>
+        <v>1.033310327449044</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034306524629941</v>
+        <v>1.034698135226566</v>
       </c>
       <c r="J19">
-        <v>1.016042509424121</v>
+        <v>1.033422784165665</v>
       </c>
       <c r="K19">
-        <v>1.021331345516592</v>
+        <v>1.034818269739181</v>
       </c>
       <c r="L19">
-        <v>1.011326776205993</v>
+        <v>1.030794165160852</v>
       </c>
       <c r="M19">
-        <v>0.9439610965955656</v>
+        <v>1.036629189644239</v>
       </c>
       <c r="N19">
-        <v>1.00902673962016</v>
+        <v>1.015105787042916</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9869278515149721</v>
+        <v>1.026966897090094</v>
       </c>
       <c r="D20">
-        <v>1.006419856151164</v>
+        <v>1.031252118326418</v>
       </c>
       <c r="E20">
-        <v>0.9961406787338242</v>
+        <v>1.027182278824925</v>
       </c>
       <c r="F20">
-        <v>0.9238245237427274</v>
+        <v>1.032531841095129</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033607589792852</v>
+        <v>1.034599409922586</v>
       </c>
       <c r="J20">
-        <v>1.014972151925718</v>
+        <v>1.033224447823347</v>
       </c>
       <c r="K20">
-        <v>1.020350751692638</v>
+        <v>1.034642329668827</v>
       </c>
       <c r="L20">
-        <v>1.010251730816755</v>
+        <v>1.030586915519455</v>
       </c>
       <c r="M20">
-        <v>0.9393535413304154</v>
+        <v>1.035917542422199</v>
       </c>
       <c r="N20">
-        <v>1.008662227917491</v>
+        <v>1.015038794558901</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9810835164906395</v>
+        <v>1.025919642651511</v>
       </c>
       <c r="D21">
-        <v>1.002125906126138</v>
+        <v>1.030468470931915</v>
       </c>
       <c r="E21">
-        <v>0.9915212698121443</v>
+        <v>1.026296159068162</v>
       </c>
       <c r="F21">
-        <v>0.9065157479487901</v>
+        <v>1.029992263637467</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03124209692811</v>
+        <v>1.034276383084501</v>
       </c>
       <c r="J21">
-        <v>1.011393985575993</v>
+        <v>1.032578855817097</v>
       </c>
       <c r="K21">
-        <v>1.017067114186831</v>
+        <v>1.034069317586903</v>
       </c>
       <c r="L21">
-        <v>1.00666507467534</v>
+        <v>1.029912789375553</v>
       </c>
       <c r="M21">
-        <v>0.9235146237152965</v>
+        <v>1.033594904599834</v>
       </c>
       <c r="N21">
-        <v>1.007443762980796</v>
+        <v>1.014820630279049</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9772910681850703</v>
+        <v>1.025261236286674</v>
       </c>
       <c r="D22">
-        <v>0.9993370555962318</v>
+        <v>1.029975707627982</v>
       </c>
       <c r="E22">
-        <v>0.98853082372793</v>
+        <v>1.025739463931873</v>
       </c>
       <c r="F22">
-        <v>0.894794838157367</v>
+        <v>1.028388703855767</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029675018048412</v>
+        <v>1.03407169425912</v>
       </c>
       <c r="J22">
-        <v>1.009061380632529</v>
+        <v>1.032172343548074</v>
       </c>
       <c r="K22">
-        <v>1.014921656994415</v>
+        <v>1.033708260279834</v>
       </c>
       <c r="L22">
-        <v>1.004332963388037</v>
+        <v>1.029488678294044</v>
       </c>
       <c r="M22">
-        <v>0.9127843773601748</v>
+        <v>1.032127480534293</v>
       </c>
       <c r="N22">
-        <v>1.006649591942975</v>
+        <v>1.014683180855268</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9793134019577845</v>
+        <v>1.025610266075621</v>
       </c>
       <c r="D23">
-        <v>1.000824519728956</v>
+        <v>1.030236935996525</v>
       </c>
       <c r="E23">
-        <v>0.9901248136508308</v>
+        <v>1.026034536581324</v>
       </c>
       <c r="F23">
-        <v>0.9010970058806524</v>
+        <v>1.029239441483336</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030513936125689</v>
+        <v>1.034180354888869</v>
       </c>
       <c r="J23">
-        <v>1.010306338118044</v>
+        <v>1.032387900810639</v>
       </c>
       <c r="K23">
-        <v>1.01606722716912</v>
+        <v>1.033899738011237</v>
       </c>
       <c r="L23">
-        <v>1.005577057718499</v>
+        <v>1.029713532529651</v>
       </c>
       <c r="M23">
-        <v>0.9185542530409833</v>
+        <v>1.032906074060473</v>
       </c>
       <c r="N23">
-        <v>1.007073437464227</v>
+        <v>1.014756072081268</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9870239795890888</v>
+        <v>1.026984455262954</v>
       </c>
       <c r="D24">
-        <v>1.006490455919353</v>
+        <v>1.031265255420596</v>
       </c>
       <c r="E24">
-        <v>0.9962167754897624</v>
+        <v>1.027197142273898</v>
       </c>
       <c r="F24">
-        <v>0.9241023281593862</v>
+        <v>1.032574304637558</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033646018098404</v>
+        <v>1.034604798703656</v>
       </c>
       <c r="J24">
-        <v>1.015030845734586</v>
+        <v>1.033235261096748</v>
       </c>
       <c r="K24">
-        <v>1.02040454259019</v>
+        <v>1.034651923106996</v>
       </c>
       <c r="L24">
-        <v>1.010310656128415</v>
+        <v>1.03059821294275</v>
       </c>
       <c r="M24">
-        <v>0.9396076692336902</v>
+        <v>1.035956364288432</v>
       </c>
       <c r="N24">
-        <v>1.008682216042193</v>
+        <v>1.015042447364193</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9955187108966325</v>
+        <v>1.02857934584802</v>
       </c>
       <c r="D25">
-        <v>1.012727381904388</v>
+        <v>1.032458349320216</v>
       </c>
       <c r="E25">
-        <v>1.002957089839322</v>
+        <v>1.028548218401824</v>
       </c>
       <c r="F25">
-        <v>0.9478850982350291</v>
+        <v>1.036415805361666</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036983285060617</v>
+        <v>1.035090480985025</v>
       </c>
       <c r="J25">
-        <v>1.020197835221878</v>
+        <v>1.034215975743081</v>
       </c>
       <c r="K25">
-        <v>1.025131282992431</v>
+        <v>1.035521417627988</v>
       </c>
       <c r="L25">
-        <v>1.015509673584196</v>
+        <v>1.031623713744943</v>
       </c>
       <c r="M25">
-        <v>0.9613501578389934</v>
+        <v>1.039466400600853</v>
       </c>
       <c r="N25">
-        <v>1.010441799525562</v>
+        <v>1.015373552735334</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_218/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_218/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02985163381283</v>
+        <v>1.001981331545824</v>
       </c>
       <c r="D2">
-        <v>1.0334098029751</v>
+        <v>1.017471452094433</v>
       </c>
       <c r="E2">
-        <v>1.029627399942429</v>
+        <v>1.008106968303988</v>
       </c>
       <c r="F2">
-        <v>1.039458241156218</v>
+        <v>0.9650884496747166</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035472387700199</v>
+        <v>1.039446410230993</v>
       </c>
       <c r="J2">
-        <v>1.034996120801076</v>
+        <v>1.024102942395594</v>
       </c>
       <c r="K2">
-        <v>1.036212233826857</v>
+        <v>1.028692631853073</v>
       </c>
       <c r="L2">
-        <v>1.032440761773479</v>
+        <v>1.019454503869054</v>
       </c>
       <c r="M2">
-        <v>1.04224337180847</v>
+        <v>0.9770565801832847</v>
       </c>
       <c r="N2">
-        <v>1.015636665658253</v>
+        <v>1.011771347586586</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030775563345503</v>
+        <v>1.006513098880708</v>
       </c>
       <c r="D3">
-        <v>1.034100561552578</v>
+        <v>1.020798512597036</v>
       </c>
       <c r="E3">
-        <v>1.030411892956195</v>
+        <v>1.011730316917435</v>
       </c>
       <c r="F3">
-        <v>1.04165550541496</v>
+        <v>0.9767614106068265</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035746541569345</v>
+        <v>1.041134755192263</v>
       </c>
       <c r="J3">
-        <v>1.035561387523069</v>
+        <v>1.026827771362687</v>
       </c>
       <c r="K3">
-        <v>1.036712282452409</v>
+        <v>1.031172013010704</v>
       </c>
       <c r="L3">
-        <v>1.033033503614254</v>
+        <v>1.02221527441117</v>
       </c>
       <c r="M3">
-        <v>1.044247206865055</v>
+        <v>0.9877005297728025</v>
       </c>
       <c r="N3">
-        <v>1.015827145815178</v>
+        <v>1.01269870288984</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031373475103234</v>
+        <v>1.009376880370066</v>
       </c>
       <c r="D4">
-        <v>1.03454749355653</v>
+        <v>1.022901336159953</v>
       </c>
       <c r="E4">
-        <v>1.030919934860554</v>
+        <v>1.014025437097942</v>
       </c>
       <c r="F4">
-        <v>1.043072034178141</v>
+        <v>0.9839884527962851</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035922491905623</v>
+        <v>1.042184897215844</v>
       </c>
       <c r="J4">
-        <v>1.035926607291227</v>
+        <v>1.028543728426625</v>
       </c>
       <c r="K4">
-        <v>1.037035137052532</v>
+        <v>1.032731001310968</v>
       </c>
       <c r="L4">
-        <v>1.033416814773073</v>
+        <v>1.023957483994642</v>
       </c>
       <c r="M4">
-        <v>1.045538245007781</v>
+        <v>0.9942840432198836</v>
       </c>
       <c r="N4">
-        <v>1.015950139453989</v>
+        <v>1.013282491115922</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031624853792447</v>
+        <v>1.010565165647804</v>
       </c>
       <c r="D5">
-        <v>1.034735375537411</v>
+        <v>1.023773967991866</v>
       </c>
       <c r="E5">
-        <v>1.031133616663815</v>
+        <v>1.014979030043356</v>
       </c>
       <c r="F5">
-        <v>1.043666317701273</v>
+        <v>0.9869552321687831</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035996116615918</v>
+        <v>1.042616757058929</v>
       </c>
       <c r="J5">
-        <v>1.036080015454715</v>
+        <v>1.029254344986541</v>
       </c>
       <c r="K5">
-        <v>1.037170695587925</v>
+        <v>1.033376060033537</v>
       </c>
       <c r="L5">
-        <v>1.033577903282417</v>
+        <v>1.024679817732029</v>
       </c>
       <c r="M5">
-        <v>1.046079691350235</v>
+        <v>0.9969850630908</v>
       </c>
       <c r="N5">
-        <v>1.016001783844458</v>
+        <v>1.013524193022835</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031667062364672</v>
+        <v>1.01076378742977</v>
       </c>
       <c r="D6">
-        <v>1.034766921269561</v>
+        <v>1.023919834199921</v>
       </c>
       <c r="E6">
-        <v>1.031169500695908</v>
+        <v>1.015138496551543</v>
       </c>
       <c r="F6">
-        <v>1.043766029575443</v>
+        <v>0.9874493520912965</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036008458344899</v>
+        <v>1.042688717951202</v>
       </c>
       <c r="J6">
-        <v>1.036105765734785</v>
+        <v>1.029373043279661</v>
       </c>
       <c r="K6">
-        <v>1.037193446535042</v>
+        <v>1.03348377584226</v>
       </c>
       <c r="L6">
-        <v>1.033604947501212</v>
+        <v>1.0248005223278</v>
       </c>
       <c r="M6">
-        <v>1.046170526821487</v>
+        <v>0.9974348262627474</v>
       </c>
       <c r="N6">
-        <v>1.016010451522588</v>
+        <v>1.013564562249094</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031376833971935</v>
+        <v>1.009392818816809</v>
       </c>
       <c r="D7">
-        <v>1.034550004076983</v>
+        <v>1.022913040363687</v>
       </c>
       <c r="E7">
-        <v>1.030922789690695</v>
+        <v>1.014038222658585</v>
       </c>
       <c r="F7">
-        <v>1.043079979799719</v>
+        <v>0.9840283678033286</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03592347703596</v>
+        <v>1.042190704911978</v>
       </c>
       <c r="J7">
-        <v>1.035928657649874</v>
+        <v>1.02855326538886</v>
       </c>
       <c r="K7">
-        <v>1.0370369490579</v>
+        <v>1.03273966060562</v>
       </c>
       <c r="L7">
-        <v>1.033418967463561</v>
+        <v>1.023967174892806</v>
       </c>
       <c r="M7">
-        <v>1.045545484937002</v>
+        <v>0.9943203890363778</v>
       </c>
       <c r="N7">
-        <v>1.015950829772962</v>
+        <v>1.013285735159845</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030163866386867</v>
+        <v>1.003527547752917</v>
       </c>
       <c r="D8">
-        <v>1.033643255407682</v>
+        <v>1.018606568385842</v>
       </c>
       <c r="E8">
-        <v>1.029892435469538</v>
+        <v>1.009342083470611</v>
       </c>
       <c r="F8">
-        <v>1.040201922487479</v>
+        <v>0.9691051943253962</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035565339357897</v>
+        <v>1.040026088620391</v>
       </c>
       <c r="J8">
-        <v>1.035187268547696</v>
+        <v>1.025033915867517</v>
       </c>
       <c r="K8">
-        <v>1.036381374985654</v>
+        <v>1.029540264915097</v>
       </c>
       <c r="L8">
-        <v>1.032641129877842</v>
+        <v>1.020396979970136</v>
       </c>
       <c r="M8">
-        <v>1.042921749646494</v>
+        <v>0.9807205816674067</v>
       </c>
       <c r="N8">
-        <v>1.015701093137519</v>
+        <v>1.012088230979628</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028026960110312</v>
+        <v>0.9926282254852444</v>
       </c>
       <c r="D9">
-        <v>1.032045172340095</v>
+        <v>1.010605457333785</v>
       </c>
       <c r="E9">
-        <v>1.028080060486594</v>
+        <v>1.000660011966424</v>
       </c>
       <c r="F9">
-        <v>1.035088808615581</v>
+        <v>0.9399539792041389</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034923126276459</v>
+        <v>1.035860562933062</v>
       </c>
       <c r="J9">
-        <v>1.033876648684567</v>
+        <v>1.018444012934462</v>
       </c>
       <c r="K9">
-        <v>1.035220705477359</v>
+        <v>1.023528780281787</v>
       </c>
       <c r="L9">
-        <v>1.031268692439332</v>
+        <v>1.013742390005367</v>
       </c>
       <c r="M9">
-        <v>1.038254361684598</v>
+        <v>0.9541026719326761</v>
       </c>
       <c r="N9">
-        <v>1.015259032983073</v>
+        <v>1.009844570702536</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026602658346745</v>
+        <v>0.9849201795164796</v>
       </c>
       <c r="D10">
-        <v>1.030979582447574</v>
+        <v>1.004945178291212</v>
       </c>
       <c r="E10">
-        <v>1.026873992441976</v>
+        <v>0.9945522428757357</v>
       </c>
       <c r="F10">
-        <v>1.031650096418278</v>
+        <v>0.917973478598391</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034487418971757</v>
+        <v>1.032801506415362</v>
       </c>
       <c r="J10">
-        <v>1.033000050048301</v>
+        <v>1.013745140795397</v>
       </c>
       <c r="K10">
-        <v>1.034443214804846</v>
+        <v>1.019225716385006</v>
       </c>
       <c r="L10">
-        <v>1.030352517210957</v>
+        <v>1.009020559866689</v>
       </c>
       <c r="M10">
-        <v>1.035111309019249</v>
+        <v>0.9340004832819101</v>
       </c>
       <c r="N10">
-        <v>1.01496298142846</v>
+        <v>1.008244376720913</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025985983216603</v>
+        <v>0.9814604117586675</v>
       </c>
       <c r="D11">
-        <v>1.030518117782608</v>
+        <v>1.002402939031467</v>
       </c>
       <c r="E11">
-        <v>1.026352268554195</v>
+        <v>0.9918187607521867</v>
       </c>
       <c r="F11">
-        <v>1.030153539387335</v>
+        <v>0.9076583064002683</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034296939317539</v>
+        <v>1.031396416383261</v>
       </c>
       <c r="J11">
-        <v>1.032619788982021</v>
+        <v>1.011625328593078</v>
       </c>
       <c r="K11">
-        <v>1.034105663268573</v>
+        <v>1.017279681272616</v>
       </c>
       <c r="L11">
-        <v>1.029955510248439</v>
+        <v>1.006896630267945</v>
       </c>
       <c r="M11">
-        <v>1.033742452928808</v>
+        <v>0.9245604395645263</v>
       </c>
       <c r="N11">
-        <v>1.014834467295868</v>
+        <v>1.007522535082074</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025756930309732</v>
+        <v>0.980155132212106</v>
       </c>
       <c r="D12">
-        <v>1.030346700134242</v>
+        <v>1.001443419343058</v>
       </c>
       <c r="E12">
-        <v>1.026158553750238</v>
+        <v>0.9907887114836691</v>
       </c>
       <c r="F12">
-        <v>1.029596474968001</v>
+        <v>0.903684722315146</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034225912197662</v>
+        <v>1.030860895132518</v>
       </c>
       <c r="J12">
-        <v>1.032478438946442</v>
+        <v>1.010823773357033</v>
       </c>
       <c r="K12">
-        <v>1.033980146541646</v>
+        <v>1.016543017865574</v>
       </c>
       <c r="L12">
-        <v>1.029807999081162</v>
+        <v>1.006094538875902</v>
       </c>
       <c r="M12">
-        <v>1.033232776662302</v>
+        <v>0.9209231624585036</v>
       </c>
       <c r="N12">
-        <v>1.014786682893652</v>
+        <v>1.007249611598439</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025806062601753</v>
+        <v>0.9804360650022773</v>
       </c>
       <c r="D13">
-        <v>1.030383470223525</v>
+        <v>1.001649956149908</v>
       </c>
       <c r="E13">
-        <v>1.026200102766558</v>
+        <v>0.9910103516276245</v>
       </c>
       <c r="F13">
-        <v>1.029716021047707</v>
+        <v>0.9045439259029334</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034241160205713</v>
+        <v>1.030976410650838</v>
       </c>
       <c r="J13">
-        <v>1.032508763734326</v>
+        <v>1.010996375935081</v>
       </c>
       <c r="K13">
-        <v>1.034007076432083</v>
+        <v>1.016701685809429</v>
       </c>
       <c r="L13">
-        <v>1.029839642776321</v>
+        <v>1.006267209259658</v>
       </c>
       <c r="M13">
-        <v>1.033342159845636</v>
+        <v>0.9217096803691126</v>
       </c>
       <c r="N13">
-        <v>1.014796935009217</v>
+        <v>1.007308380152756</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025967049479997</v>
+        <v>0.981352940196456</v>
       </c>
       <c r="D14">
-        <v>1.030503948535666</v>
+        <v>1.002323945207017</v>
       </c>
       <c r="E14">
-        <v>1.026336254464988</v>
+        <v>0.9917339256880904</v>
       </c>
       <c r="F14">
-        <v>1.030107516496406</v>
+        <v>0.9073328983634573</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034291073803441</v>
+        <v>1.031352437781339</v>
       </c>
       <c r="J14">
-        <v>1.032608107073062</v>
+        <v>1.011559369717231</v>
       </c>
       <c r="K14">
-        <v>1.034095290777227</v>
+        <v>1.017219079517607</v>
       </c>
       <c r="L14">
-        <v>1.029943317852321</v>
+        <v>1.006830606011636</v>
       </c>
       <c r="M14">
-        <v>1.033700348073374</v>
+        <v>0.9242625879683952</v>
       </c>
       <c r="N14">
-        <v>1.014830518413355</v>
+        <v>1.007500076018313</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026066239802198</v>
+        <v>0.9819151242119993</v>
       </c>
       <c r="D15">
-        <v>1.030578177974424</v>
+        <v>1.002737144750931</v>
       </c>
       <c r="E15">
-        <v>1.026420152174764</v>
+        <v>0.9921777479330705</v>
       </c>
       <c r="F15">
-        <v>1.030348572689988</v>
+        <v>0.9090316776845371</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034321790792544</v>
+        <v>1.031582265430827</v>
       </c>
       <c r="J15">
-        <v>1.03266930195911</v>
+        <v>1.011904325949594</v>
       </c>
       <c r="K15">
-        <v>1.034149624622814</v>
+        <v>1.017535984804226</v>
       </c>
       <c r="L15">
-        <v>1.030007189496785</v>
+        <v>1.007175946224532</v>
       </c>
       <c r="M15">
-        <v>1.033920876618235</v>
+        <v>0.925817478394221</v>
       </c>
       <c r="N15">
-        <v>1.014851203820721</v>
+        <v>1.007617535004888</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026643586170997</v>
+        <v>0.9851470724526676</v>
       </c>
       <c r="D16">
-        <v>1.031010207087834</v>
+        <v>1.005111853933443</v>
       </c>
       <c r="E16">
-        <v>1.026908628301382</v>
+        <v>0.9947316736887518</v>
       </c>
       <c r="F16">
-        <v>1.031749255141533</v>
+        <v>0.9186394972965918</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034500022081056</v>
+        <v>1.03289294070961</v>
       </c>
       <c r="J16">
-        <v>1.033025272161045</v>
+        <v>1.013883921367176</v>
       </c>
       <c r="K16">
-        <v>1.034465598099044</v>
+        <v>1.019353013264739</v>
       </c>
       <c r="L16">
-        <v>1.030378858957092</v>
+        <v>1.009159745794179</v>
       </c>
       <c r="M16">
-        <v>1.035201986101602</v>
+        <v>0.9346098796688307</v>
       </c>
       <c r="N16">
-        <v>1.014971503692269</v>
+        <v>1.008291636857884</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027005754939567</v>
+        <v>0.9871405122227216</v>
       </c>
       <c r="D17">
-        <v>1.03128119185671</v>
+        <v>1.006576040564539</v>
       </c>
       <c r="E17">
-        <v>1.027215173308288</v>
+        <v>0.9963090300463113</v>
       </c>
       <c r="F17">
-        <v>1.032625811751418</v>
+        <v>0.9244388193330575</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034611334581524</v>
+        <v>1.033692583020994</v>
       </c>
       <c r="J17">
-        <v>1.033248378113699</v>
+        <v>1.015101991335445</v>
       </c>
       <c r="K17">
-        <v>1.034663560219297</v>
+        <v>1.020469742110223</v>
       </c>
       <c r="L17">
-        <v>1.03061191753479</v>
+        <v>1.010382086322429</v>
       </c>
       <c r="M17">
-        <v>1.036003453508546</v>
+        <v>0.9399154780695291</v>
       </c>
       <c r="N17">
-        <v>1.015046878332369</v>
+        <v>1.008706444641014</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027217007408971</v>
+        <v>0.9882916069547669</v>
       </c>
       <c r="D18">
-        <v>1.031439247206571</v>
+        <v>1.007421383011086</v>
       </c>
       <c r="E18">
-        <v>1.027394025194716</v>
+        <v>0.997220615304221</v>
       </c>
       <c r="F18">
-        <v>1.033136364467597</v>
+        <v>0.9277462965760767</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034676086228346</v>
+        <v>1.034151352975186</v>
       </c>
       <c r="J18">
-        <v>1.033378445706701</v>
+        <v>1.01580435919657</v>
       </c>
       <c r="K18">
-        <v>1.034778942082043</v>
+        <v>1.021113231633502</v>
       </c>
       <c r="L18">
-        <v>1.03074782803445</v>
+        <v>1.011087497634331</v>
       </c>
       <c r="M18">
-        <v>1.036470176753287</v>
+        <v>0.9429407812442855</v>
       </c>
       <c r="N18">
-        <v>1.015090812043071</v>
+        <v>1.00894563691761</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027289040008914</v>
+        <v>0.9886821749799687</v>
       </c>
       <c r="D19">
-        <v>1.031493139081752</v>
+        <v>1.007708188934114</v>
       </c>
       <c r="E19">
-        <v>1.027455017444469</v>
+        <v>0.9975300446480774</v>
       </c>
       <c r="F19">
-        <v>1.033310327449044</v>
+        <v>0.928861892009531</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034698135226566</v>
+        <v>1.034306524629941</v>
       </c>
       <c r="J19">
-        <v>1.033422784165665</v>
+        <v>1.016042509424121</v>
       </c>
       <c r="K19">
-        <v>1.034818269739181</v>
+        <v>1.021331345516592</v>
       </c>
       <c r="L19">
-        <v>1.030794165160852</v>
+        <v>1.011326776205992</v>
       </c>
       <c r="M19">
-        <v>1.036629189644239</v>
+        <v>0.9439610965955654</v>
       </c>
       <c r="N19">
-        <v>1.015105787042916</v>
+        <v>1.00902673962016</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026966897090094</v>
+        <v>0.9869278515149721</v>
       </c>
       <c r="D20">
-        <v>1.031252118326418</v>
+        <v>1.006419856151164</v>
       </c>
       <c r="E20">
-        <v>1.027182278824925</v>
+        <v>0.9961406787338242</v>
       </c>
       <c r="F20">
-        <v>1.032531841095129</v>
+        <v>0.9238245237427273</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034599409922586</v>
+        <v>1.033607589792852</v>
       </c>
       <c r="J20">
-        <v>1.033224447823347</v>
+        <v>1.014972151925718</v>
       </c>
       <c r="K20">
-        <v>1.034642329668827</v>
+        <v>1.020350751692638</v>
       </c>
       <c r="L20">
-        <v>1.030586915519455</v>
+        <v>1.010251730816755</v>
       </c>
       <c r="M20">
-        <v>1.035917542422199</v>
+        <v>0.9393535413304153</v>
       </c>
       <c r="N20">
-        <v>1.015038794558901</v>
+        <v>1.008662227917491</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025919642651511</v>
+        <v>0.9810835164906384</v>
       </c>
       <c r="D21">
-        <v>1.030468470931915</v>
+        <v>1.002125906126137</v>
       </c>
       <c r="E21">
-        <v>1.026296159068162</v>
+        <v>0.9915212698121435</v>
       </c>
       <c r="F21">
-        <v>1.029992263637467</v>
+        <v>0.9065157479487873</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034276383084501</v>
+        <v>1.031242096928109</v>
       </c>
       <c r="J21">
-        <v>1.032578855817097</v>
+        <v>1.011393985575992</v>
       </c>
       <c r="K21">
-        <v>1.034069317586903</v>
+        <v>1.01706711418683</v>
       </c>
       <c r="L21">
-        <v>1.029912789375553</v>
+        <v>1.00666507467534</v>
       </c>
       <c r="M21">
-        <v>1.033594904599834</v>
+        <v>0.9235146237152937</v>
       </c>
       <c r="N21">
-        <v>1.014820630279049</v>
+        <v>1.007443762980795</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025261236286674</v>
+        <v>0.9772910681850707</v>
       </c>
       <c r="D22">
-        <v>1.029975707627982</v>
+        <v>0.999337055596232</v>
       </c>
       <c r="E22">
-        <v>1.025739463931873</v>
+        <v>0.98853082372793</v>
       </c>
       <c r="F22">
-        <v>1.028388703855767</v>
+        <v>0.8947948381573669</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03407169425912</v>
+        <v>1.029675018048413</v>
       </c>
       <c r="J22">
-        <v>1.032172343548074</v>
+        <v>1.00906138063253</v>
       </c>
       <c r="K22">
-        <v>1.033708260279834</v>
+        <v>1.014921656994415</v>
       </c>
       <c r="L22">
-        <v>1.029488678294044</v>
+        <v>1.004332963388037</v>
       </c>
       <c r="M22">
-        <v>1.032127480534293</v>
+        <v>0.9127843773601748</v>
       </c>
       <c r="N22">
-        <v>1.014683180855268</v>
+        <v>1.006649591942976</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025610266075621</v>
+        <v>0.9793134019577832</v>
       </c>
       <c r="D23">
-        <v>1.030236935996525</v>
+        <v>1.000824519728955</v>
       </c>
       <c r="E23">
-        <v>1.026034536581324</v>
+        <v>0.9901248136508299</v>
       </c>
       <c r="F23">
-        <v>1.029239441483336</v>
+        <v>0.9010970058806518</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034180354888869</v>
+        <v>1.030513936125688</v>
       </c>
       <c r="J23">
-        <v>1.032387900810639</v>
+        <v>1.010306338118043</v>
       </c>
       <c r="K23">
-        <v>1.033899738011237</v>
+        <v>1.016067227169119</v>
       </c>
       <c r="L23">
-        <v>1.029713532529651</v>
+        <v>1.005577057718499</v>
       </c>
       <c r="M23">
-        <v>1.032906074060473</v>
+        <v>0.9185542530409827</v>
       </c>
       <c r="N23">
-        <v>1.014756072081268</v>
+        <v>1.007073437464226</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026984455262954</v>
+        <v>0.9870239795890885</v>
       </c>
       <c r="D24">
-        <v>1.031265255420596</v>
+        <v>1.006490455919353</v>
       </c>
       <c r="E24">
-        <v>1.027197142273898</v>
+        <v>0.9962167754897623</v>
       </c>
       <c r="F24">
-        <v>1.032574304637558</v>
+        <v>0.9241023281593863</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034604798703656</v>
+        <v>1.033646018098404</v>
       </c>
       <c r="J24">
-        <v>1.033235261096748</v>
+        <v>1.015030845734586</v>
       </c>
       <c r="K24">
-        <v>1.034651923106996</v>
+        <v>1.02040454259019</v>
       </c>
       <c r="L24">
-        <v>1.03059821294275</v>
+        <v>1.010310656128415</v>
       </c>
       <c r="M24">
-        <v>1.035956364288432</v>
+        <v>0.9396076692336902</v>
       </c>
       <c r="N24">
-        <v>1.015042447364193</v>
+        <v>1.008682216042193</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02857934584802</v>
+        <v>0.9955187108966322</v>
       </c>
       <c r="D25">
-        <v>1.032458349320216</v>
+        <v>1.012727381904388</v>
       </c>
       <c r="E25">
-        <v>1.028548218401824</v>
+        <v>1.002957089839322</v>
       </c>
       <c r="F25">
-        <v>1.036415805361666</v>
+        <v>0.9478850982350291</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035090480985025</v>
+        <v>1.036983285060617</v>
       </c>
       <c r="J25">
-        <v>1.034215975743081</v>
+        <v>1.020197835221878</v>
       </c>
       <c r="K25">
-        <v>1.035521417627988</v>
+        <v>1.025131282992431</v>
       </c>
       <c r="L25">
-        <v>1.031623713744943</v>
+        <v>1.015509673584196</v>
       </c>
       <c r="M25">
-        <v>1.039466400600853</v>
+        <v>0.9613501578389931</v>
       </c>
       <c r="N25">
-        <v>1.015373552735334</v>
+        <v>1.010441799525562</v>
       </c>
     </row>
   </sheetData>
